--- a/data_excel/284.xlsx
+++ b/data_excel/284.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前100題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
   <si>
     <t>小正</t>
   </si>
@@ -131,11 +131,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,7 +522,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -762,7 +766,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">

--- a/data_excel/284.xlsx
+++ b/data_excel/284.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="39">
   <si>
     <t>小正</t>
   </si>
@@ -45,9 +45,6 @@
     <t>吃</t>
   </si>
   <si>
-    <t>v</t>
-  </si>
-  <si>
     <t>了</t>
   </si>
   <si>
@@ -140,6 +137,18 @@
   </si>
   <si>
     <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,7 +531,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -538,7 +547,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -547,7 +556,7 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -558,7 +567,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -567,247 +576,247 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
+      <c r="B3" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
-        <v>8</v>
+      <c r="F3" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
         <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
-      <c r="B16" t="s">
-        <v>8</v>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
